--- a/qutbi/images/Juz2/muwajjahat/موجھات.xlsx
+++ b/qutbi/images/Juz2/muwajjahat/موجھات.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\books\dars\qutbi\images\Juz2\muwajjahat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231D567-14EA-49D7-9B63-AF96C0EFF6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6541AD16-52F1-4104-A92C-E6DF3DA0BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CA2BD6CC-39B2-43F2-BC8D-E9C8AAE13965}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{CA2BD6CC-39B2-43F2-BC8D-E9C8AAE13965}"/>
   </bookViews>
   <sheets>
     <sheet name="وجودیہ لاضروریۃ" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="الوقتیہ" sheetId="3" r:id="rId3"/>
     <sheet name="منتشرہ" sheetId="4" r:id="rId4"/>
     <sheet name="ممکنہ خاصہ" sheetId="5" r:id="rId5"/>
+    <sheet name="بسائط" sheetId="6" r:id="rId6"/>
+    <sheet name="مرکبات" sheetId="7" r:id="rId7"/>
+    <sheet name="نسبتیں" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="104">
   <si>
     <t>مشروطہ خاصہ</t>
   </si>
@@ -170,12 +175,211 @@
     <t>وقتیہ اخص مطلق ہے اور یہ دونوں اعم مطلق ہیں
 جہاں کام کسی وقت میں ہو تو بالفعل اور امکان دونوں ہونگے جیسے وقتیہ کی مثال، مگر جہاں بالفعل یا امکان ہو تو وقت ہونا ضروری نہیں جیسے کل کاتب متحرک الاصابع مادام کاتبا لادائما اس میں کتابت کسی وقت میں بھی ضروری نہیں، پہلی والی لائن کی مثال میں بھی یہ فٹ ہوگا</t>
   </si>
+  <si>
+    <t>مطلقہ عامہ
+ممکنہ عامہ</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کے لئے ثبوت محمول کا حکم یا سلب محمول کا حکم ضروری ہو جب تک موضوع کی ذات موجود ہو۔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کُلُّ اِنْسَانٍ حَیَوَانٌ بِالضَّرُوْرَۃِ، أَلاِنْسَانُ لَیْسَ بِحَجَرٍ بِالضَّرُوْرَۃِ </t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے ”محمول کے ثبوت کا حکم یا سلب کا حکم دائمی ہو جب تک ذاتِ موضوع موجودہے</t>
+  </si>
+  <si>
+    <t>کُلُّ اِنْسَانٍ حَیَوَانٌ بِالدَّوَامِ, لاَشَیْءَ مِنَ الاِنْسَانِ بِحَجَرٍ بِالدَّوَامِ</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے” محمول کے ثبوت کا حکم” یا”سلب کا حکم کیا گیا ہو ”ضروری طور پر جب تک ذات موضوع وصف عنوانی کے ساتھ متصف ہو</t>
+  </si>
+  <si>
+    <t>کُلُّ کَاتِبٍ مُتَحَرِّکُ الأَصَابِعِ بِالضَّرُوْرَۃِ مَادَامَ کَاتِبًا،لاَشَی ءَ مِنَ الْکَاتِبِ بِسَاکِنِ الأَصَابِعِ بِالضَّرُوْرَۃِ مَادَامَ کَاتِبًا</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے” محمول کے ثبوت” یا”سلب کاحکم” کیاگیا ہو دائمی طور پر جب تک موضوع وصف عنوانی کے ساتھ متصف ہو</t>
+  </si>
+  <si>
+    <t>کُلُّ کَاتِبٍ مُتَحَرِّکُ الأَصَابِعِ بِالدَّوَامِ مَادَامَ کَاتِبًا،لاَشَی مِنَ الْکَاتِبِ بِسَاکِنِ الأَصَابِعِ بِالدَّوَامِ مَادَامَ کَاتِبًا</t>
+  </si>
+  <si>
+    <t>وقتیہ مطلقہ</t>
+  </si>
+  <si>
+    <t>منتشرہ مطلقہ</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے ”محمول کے ثبوت کاحکم” یا”سلب کاحکم ” ضروری طور پر کسی معین وقت میں کیا گیا ہو۔</t>
+  </si>
+  <si>
+    <t>کُلُّ قَمَرٍ مُنْخَسِفٌ بِالضَّرُوْرَۃِ وَقْتَ حَیْلُوْلَۃِ الأَرْضِ بَیْنَہ، وَبَیْنَ الشَّمْسِ ،لاَشَیْءَ مِنَ الْقَمَرِ بِمُنْخَسِفٍ بِالضَّرُوْرَۃِ وَقْتَ التَّرْبِیْعِ</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے ”محمول کے ثبوت” یا ”سلب کاحکم” ضروری طورپرکسی غیر معین وقت میں کیاگیاہو</t>
+  </si>
+  <si>
+    <t>کُلُّ حَیَوَانٍ مُتَنَفِّسٌ بِالضَّرُوْرَۃِ وَقْتًا مَّا،لاَشَی مِنَ الْحَجَرِ بِمُتَنَفِّسٍ بِالضَّرُوْرَۃِ وَقْتًامَّا</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے” محمول کے ثبوت” یا ”سلب کا حکم کیا” گیا ہو ضروری طور پر تینوں زمانوں میں سے کسی بھی ایک زمانے میں</t>
+  </si>
+  <si>
+    <t>کُلُّ اِنْسَانٍ ضَاحِکٌ بِالْفِعْلِ ،لاَشَی مِنَ الاِنْسَانِ بِضَاحِکٍ بِالْفِعْلِ</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے محمول کی جانب مخالف کے ضروری ہونے کی نفی کا حکم ہو</t>
+  </si>
+  <si>
+    <t>کُلُّ نَارٍ حَارَّۃٌ بِالاِمْکَانِ الْعَامِّ، لاَشَی مِنَ النَّارِ بِبَارِدٍ بِالاِمْکَانِ الْعَامِّ</t>
+  </si>
+  <si>
+    <t>مشروطہ عامہ لادوام ذاتی کی قید کے ساتھ</t>
+  </si>
+  <si>
+    <t>بِالضَّرُوْرَۃِ کُلُّ کَاتِبٍ مُتَحَرِّکُ الأَصَابِعِ مَادَامَ کَاتِبًا لاَدَائِمًا، بِالضَّرُوْرَۃِ لاَشَیءَ مِنَ الْکَاتِبِ بِسَاکِنِ الأَصَابِعِ مَادَامَ کَاتِبًا لاَدَائِمًا</t>
+  </si>
+  <si>
+    <t>عرفیہ عامہ لادوام ذاتی کی قید کے ساتھ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بِالدَّوَامِ کُلُّ کَاتِبٍ مُتَحَرِّکُ الأَصَابِعِ ،مَادَامَ کَاتِبًا لاَدَائِمًا ،بِالدَّوَامِ لاَشَیءَ مِنَ الْکَاتِبِ بِسَاکِنِ الأَصَابِعِ مَادَامَ کَاتِبًا لاَدَائِمًا</t>
+  </si>
+  <si>
+    <t>وقتیہ</t>
+  </si>
+  <si>
+    <t>وقتیہ مطلقہ لادوام ذاتی کی قید کے ساتھ</t>
+  </si>
+  <si>
+    <t>بِالضَّرُوْرَۃِ کُلُّ قَمَرٍ مُنْخَسِفٌ وَقْتَ حَیْلُوْلَۃِ الأَرْضِ بَیْنَہ، وَبَیْنَ الشَّمْسِ لاَدَائِمًا،بِالضَّرُوْرَۃِ لاَشَیءَ مِنَ الْقَمَرِ بِمُنْخَسِفٍ وَقْتَ التَّرْبِیْعِ لاَدَائِمًا</t>
+  </si>
+  <si>
+    <t>منتشرہ</t>
+  </si>
+  <si>
+    <t>منتشرہ مطلقہ لادوام ذاتی کی قید کے ساتھ</t>
+  </si>
+  <si>
+    <t>بِالضَّرُوْرَۃِ کُلُّ حَیَوَانٍ مُتَنَفِّسٌ وَقْتًامَّا لاَ دَائِمًا۔ بِالضَّرُوْرَۃِ لاَشَیْءَ مِنَ الحَیَوَانِ بمُتَنَفِّسٍ وَقْتًامَّا لاَ دَائِمًا</t>
+  </si>
+  <si>
+    <t>مطلقہ عامہ لادوام ذاتی کی قید کے ساتھ</t>
+  </si>
+  <si>
+    <t>کُلُّ اِنْسَانٍ ضَاحِکٌ بِالْفِعْلِ لاَدَائِمًا ، لاَشَیءَ مِنَ الاِنْسَانِ بِضَاحِکٍ بِالْفِعْلِ لاَدَائِمًا</t>
+  </si>
+  <si>
+    <t>وجودیہ لاضروریہ</t>
+  </si>
+  <si>
+    <t>مطلقہ عامہ لاضرورۃ ذاتی کی قید کے ساتھ</t>
+  </si>
+  <si>
+    <t>کُلُّ اِنْسَانٍ ضَاحِکٌ بِالْفِعْلِ لاَبِالضَّرُوْرَۃِ، لاَشَی مِنَ الاِنْسَانِ بِضَاحِکٍ بِالْفِعْلِ لاَ بِالضَّرُوْرَۃِ</t>
+  </si>
+  <si>
+    <t>ممکنہ خاصہ</t>
+  </si>
+  <si>
+    <t>جس میں موضوع کیلئے محمول کی جانبِ موافق ومخالف دونوں کے ضروری نہ ہونے کاحکم کیاگیا ہو، جب کہ امکان عام میں صرف جانب مخالف ہوتا ہے</t>
+  </si>
+  <si>
+    <t>کُلُّ اِنْسَانٍ ضَاحِکٌ بِالاِمْکَانِ الْخَاصِّ، لاَشَیْءَ مِنَ الاِنْسَانِ بِضَاحِکٍ بِالاِمْکَانِ الخَاصِّ</t>
+  </si>
+  <si>
+    <t>ممكنةعامة</t>
+  </si>
+  <si>
+    <t>مطلقةعامة</t>
+  </si>
+  <si>
+    <t>عرفيةعامة</t>
+  </si>
+  <si>
+    <t>مشروطةعامة</t>
+  </si>
+  <si>
+    <t>دائمة</t>
+  </si>
+  <si>
+    <t>ضرورية</t>
+  </si>
+  <si>
+    <t>مشروطةخاصة</t>
+  </si>
+  <si>
+    <t>عرفيةخاصة</t>
+  </si>
+  <si>
+    <t>وجوديةلادالمة</t>
+  </si>
+  <si>
+    <t>منتشرة</t>
+  </si>
+  <si>
+    <t>وحودية لا ضروریہ</t>
+  </si>
+  <si>
+    <t>ممکنہ خاصة</t>
+  </si>
+  <si>
+    <t>من وجہ</t>
+  </si>
+  <si>
+    <t>مطلق، اعم مشروطہ عامہ</t>
+  </si>
+  <si>
+    <t>مطلق اعم عرفیہ عامہ</t>
+  </si>
+  <si>
+    <t>مطلق اعم مطلقہ عامہ</t>
+  </si>
+  <si>
+    <t>ضروریہ اخص</t>
+  </si>
+  <si>
+    <t>مشروطہ اخص</t>
+  </si>
+  <si>
+    <t>عرفیہ عامہ اعم</t>
+  </si>
+  <si>
+    <t>مطلقہ اعم</t>
+  </si>
+  <si>
+    <t>ممکنہ اعم</t>
+  </si>
+  <si>
+    <t>مشروطہ خاصہ اخص</t>
+  </si>
+  <si>
+    <t>عرفیہ خاصہ اعم</t>
+  </si>
+  <si>
+    <t>وجودیہ لاضروریہ اعم</t>
+  </si>
+  <si>
+    <t>وجودیہ لاضروریہ اخص</t>
+  </si>
+  <si>
+    <t>یہ اخص ہے</t>
+  </si>
+  <si>
+    <t>یہ اعم ہے</t>
+  </si>
+  <si>
+    <t>مکمنہ عامہ</t>
+  </si>
+  <si>
+    <t>یہ اعم ہے باقی وقتیہ کی طرح ہے</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +394,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -222,20 +434,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -243,16 +510,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,97 +887,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -681,6 +987,874 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5120EA-E459-497D-8A1C-7E6716012B90}">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection sqref="A1:E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>9</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>10</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>11</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>13</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B59:B70"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -700,115 +1874,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -821,10 +1995,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B3E4E-ED3F-4E86-B017-F9C2A25B1E01}">
-  <dimension ref="A1:C12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,133 +2012,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -987,4 +2159,449 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67923DBC-F9CC-4AF4-BE67-F70D1213E7FA}">
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AF98A1-A1B3-44B1-85A3-3C74AAD4148E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74832C5D-5A42-47E1-9B03-8598F96392FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3C4507-B787-482A-A9BC-A7D616B94273}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>